--- a/library/library_H.BROWN_09.21.20.xlsx
+++ b/library/library_H.BROWN_09.21.20.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DC0E4E-79FE-CC48-BEA8-09C5051FC63E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E609E2D7-4224-964F-89CE-694A35939EAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3720" yWindow="3880" windowWidth="16380" windowHeight="15520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="69">
   <si>
     <t>s2cDNADate</t>
   </si>
@@ -193,9 +193,6 @@
   </si>
   <si>
     <t>Index1_26</t>
-  </si>
-  <si>
-    <t>09.28.20</t>
   </si>
   <si>
     <t>Index1_1</t>
@@ -631,7 +628,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J27"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -693,7 +690,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -702,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>12</v>
@@ -711,16 +708,16 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
         <v>57</v>
       </c>
-      <c r="H2" t="s">
-        <v>58</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>13</v>
@@ -746,7 +743,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -755,7 +752,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>12</v>
@@ -764,16 +761,16 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>13</v>
@@ -785,7 +782,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>12</v>
@@ -794,7 +791,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>12</v>
@@ -809,10 +806,10 @@
         <v>14</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>13</v>
@@ -824,7 +821,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
@@ -833,7 +830,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
@@ -848,10 +845,10 @@
         <v>15</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>13</v>
@@ -863,7 +860,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -872,7 +869,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>12</v>
@@ -881,16 +878,16 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>13</v>
@@ -902,7 +899,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -911,7 +908,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>12</v>
@@ -926,10 +923,10 @@
         <v>16</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>13</v>
@@ -941,7 +938,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
@@ -950,7 +947,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>12</v>
@@ -965,10 +962,10 @@
         <v>17</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>13</v>
@@ -980,7 +977,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
@@ -989,7 +986,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>12</v>
@@ -1004,10 +1001,10 @@
         <v>18</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>13</v>
@@ -1019,7 +1016,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
@@ -1028,7 +1025,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>12</v>
@@ -1043,10 +1040,10 @@
         <v>19</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>13</v>
@@ -1058,7 +1055,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
@@ -1067,7 +1064,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>12</v>
@@ -1076,16 +1073,16 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>13</v>
@@ -1097,7 +1094,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
@@ -1106,7 +1103,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>12</v>
@@ -1121,10 +1118,10 @@
         <v>20</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>13</v>
@@ -1136,7 +1133,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>12</v>
@@ -1145,7 +1142,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>12</v>
@@ -1154,16 +1151,16 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>13</v>
@@ -1175,7 +1172,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>12</v>
@@ -1184,7 +1181,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>12</v>
@@ -1199,10 +1196,10 @@
         <v>21</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>13</v>
@@ -1214,7 +1211,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>12</v>
@@ -1223,7 +1220,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>12</v>
@@ -1238,10 +1235,10 @@
         <v>22</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>13</v>
@@ -1253,7 +1250,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>12</v>
@@ -1262,7 +1259,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>12</v>
@@ -1277,10 +1274,10 @@
         <v>23</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>13</v>
@@ -1292,7 +1289,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>12</v>
@@ -1301,7 +1298,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>12</v>
@@ -1316,10 +1313,10 @@
         <v>24</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>13</v>
@@ -1331,7 +1328,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>12</v>
@@ -1340,7 +1337,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>12</v>
@@ -1355,10 +1352,10 @@
         <v>25</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>13</v>
@@ -1370,7 +1367,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>12</v>
@@ -1379,7 +1376,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>12</v>
@@ -1394,10 +1391,10 @@
         <v>26</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>13</v>
@@ -1409,7 +1406,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>12</v>
@@ -1418,7 +1415,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>12</v>
@@ -1433,10 +1430,10 @@
         <v>27</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>13</v>
@@ -1448,7 +1445,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>12</v>
@@ -1457,7 +1454,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>12</v>
@@ -1472,10 +1469,10 @@
         <v>28</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>13</v>
@@ -1487,7 +1484,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>12</v>
@@ -1496,7 +1493,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>12</v>
@@ -1511,10 +1508,10 @@
         <v>29</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>13</v>
@@ -1526,7 +1523,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>12</v>
@@ -1535,7 +1532,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>12</v>
@@ -1550,10 +1547,10 @@
         <v>30</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>13</v>
@@ -1565,7 +1562,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>12</v>
@@ -1574,7 +1571,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>12</v>
@@ -1589,10 +1586,10 @@
         <v>31</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>13</v>
@@ -1604,7 +1601,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>12</v>
@@ -1613,7 +1610,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>12</v>
@@ -1628,10 +1625,10 @@
         <v>32</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>13</v>
@@ -1643,7 +1640,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>12</v>
@@ -1652,7 +1649,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>12</v>
@@ -1667,10 +1664,10 @@
         <v>33</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>13</v>
@@ -1682,7 +1679,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>12</v>
@@ -1691,7 +1688,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>12</v>
@@ -1706,10 +1703,10 @@
         <v>34</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>13</v>
